--- a/medicine/Enfance/Carbone_(scénariste)/Carbone_(scénariste).xlsx
+++ b/medicine/Enfance/Carbone_(scénariste)/Carbone_(scénariste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carbone_(sc%C3%A9nariste)</t>
+          <t>Carbone_(scénariste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bénédicte Carboneill, dite Carbone (née le 18 juin 1973), est une enseignante, romancière jeunesse et scénariste de bande dessinée française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carbone_(sc%C3%A9nariste)</t>
+          <t>Carbone_(scénariste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Professeure des écoles en maternelle de 1995[1] à 2018[2], Bénédicte Carboneill se lance dans l'écriture et l'édition d'albums jeunesse pédagogiques dans les années 2000[3]. 
-À partir de 2016, Jungle puis Dupuis publient des bandes dessinées qu'elle écrit sous la pseudonyme Carbone[3], puis devient autrice à plein temps à partir de 2018[2].
-Elle a reçu deux fois le prix des écoles d'Angoulême lors au Festival international de la bande dessinée : pour le premier tome de sa série fantastique La Boîte à musique, prépubliée dans Spirou, au festival de 2019[3] et le premier tome de sa série fantastique La Sentinelle du Petit Peuple, co-écrit avec Véronique Barrau et dessinée par Charline Forns, à celui de 2022.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeure des écoles en maternelle de 1995 à 2018, Bénédicte Carboneill se lance dans l'écriture et l'édition d'albums jeunesse pédagogiques dans les années 2000. 
+À partir de 2016, Jungle puis Dupuis publient des bandes dessinées qu'elle écrit sous la pseudonyme Carbone, puis devient autrice à plein temps à partir de 2018.
+Elle a reçu deux fois le prix des écoles d'Angoulême lors au Festival international de la bande dessinée : pour le premier tome de sa série fantastique La Boîte à musique, prépubliée dans Spirou, au festival de 2019 et le premier tome de sa série fantastique La Sentinelle du Petit Peuple, co-écrit avec Véronique Barrau et dessinée par Charline Forns, à celui de 2022.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carbone_(sc%C3%A9nariste)</t>
+          <t>Carbone_(scénariste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,35 +560,228 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Dans des périodiques
-Dans Le Journal de Spirou[4]
-En albums
-Le Pass'Temps
-avec Ariane Delrieu (dessin et couleurs), Jungle 
+          <t>Dans des périodiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans Le Journal de Spirou</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Le Pass'Temps</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>avec Ariane Delrieu (dessin et couleurs), Jungle 
 Chez leur grand-mère, ancienne costumière de théâtre, Marie et son petit frère Léo fouillent une vieille malle trouvée au grenier à la recherche de déguisements pour le carnaval. Alors qu'ils essayent des costumes de la Renaissance, le miroir dans lequel ils s'admirent les propulse au XVIe siècle où ils sont plongés dans l'histoire de Claude de Bretagne et doivent mener une enquête autour de la disparition d'un bijou…
-Les Joyaux de la couronne, 2016  (ISBN 978-2-8222-1525-1).
-La Boîte à musique
-avec Gijé (dessin et couleurs), Dupuis
+Les Joyaux de la couronne, 2016  (ISBN 978-2-8222-1525-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>La Boîte à musique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>avec Gijé (dessin et couleurs), Dupuis
 La petite Nola vient de perdre sa mère et vit désormais seule avec son père. Pour ses 8 ans, celui-ci lui offre la boîte à musique de sa maman. Surprise : lorsqu'elle est seule et examine la boîte, Nola aperçoit une petite fille à l'intérieur qui appelle au secours. Cette petite fille, Andréa, donne des instructions à Nola qui alors rapetisse et entre dans la boîte. Elle y découvre le monde féerique de Pandorient…
 Bienvenue à Pandorient, 2018  (ISBN 978-2-8001-7319-1).
 Le Secret de Cyprien, 2018  (ISBN 979-10-34731-45-9).
 À la recherche des origines, 2019  (ISBN 979-10-34736-90-4).
 La mystérieuse disparition, 2020  (ISBN 979-1-0347-4787-0).
-Les plumes d'aigle douce, 2021  (ISBN 979-1-0347-5303-1).
-Les Zindics anonymes
-avec James Christ (dessin), Dupuis
+Les plumes d'aigle douce, 2021  (ISBN 979-1-0347-5303-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les Zindics anonymes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>avec James Christ (dessin), Dupuis
 Quand l'enquête sur laquelle travaille le père du jeune Tom, capitaine de police judiciaire, met en cause Fabian, un ancien surveillant de son lycée, celui-ci décide de mener l'enquête de son côté. Avec Lilia, sa meilleure amie, ils deviennent indicateurs pour la police, anonymement…
 Mission 1, 2019  (ISBN 979-10-34736-81-2).
-Mission 2, 2020  (ISBN 979-10-34736-82-9).
-Dans les yeux de Lya
-avec Justine Cunha (dessin et couleurs), Dupuis
+Mission 2, 2020  (ISBN 979-10-34736-82-9).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dans les yeux de Lya</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>avec Justine Cunha (dessin et couleurs), Dupuis
 À la veille de ses 17 ans, Lya est renversée par un chauffard qui prend la fuite en la laissant pour morte sur le bord de la route. Quatre ans plus tard, ayant perdu l'usage de ses jambes, elle se fait engager par un prestigieux cabinet d'avocats dans les archives duquel elle espère trouver l'identité du chauffard…
 En quête de vérité, 2019  (ISBN 979-10-34732-63-0).
 Sur les traces du coupable, 2020  (ISBN 979-10-34736-86-7).
-Un coupable intouchable, 2021  (ISBN 979-1-0347-3896-0).
-La Brigade des souvenirs
-avec CeeCeeMia au co-scénario, Marko (dessins) et Maëla Cosson (couleurs), Dupuis
+Un coupable intouchable, 2021  (ISBN 979-1-0347-3896-0).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>La Brigade des souvenirs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>avec CeeCeeMia au co-scénario, Marko (dessins) et Maëla Cosson (couleurs), Dupuis
 Lorsque Tania, Alban et Théo découvrent la lettre de Toinette, cachée dans une vieille école en ruine, ils ne se doutent pas qu'elle les plongera au cœur de la Première Guerre mondiale. Ils font alors des recherches dans diverses archives pour comprendre l'histoire d'amour impossible entre Toinette et Ernest et remontent le temps sur les traces de leurs descendants. Le trio d'adolescents enquête sur la « petite » histoire derrière l'Histoire avec un grand H. 
 Le second tome aborde l'affaire des « enfants de la Creuse » quant Tania, Alban et Théo découvrent une pellicule dans un vieil appareil photographique lors d'une brocante. Les clichés représentent un jeune Réunionnais.
 Dans le troisième tome, Théo découvre une automobile Mercedes de collection lorsqu'il aide sa mère à vider le garage de son grand-père mécanicien. Avec Tania et Alban, il recherche si Papilou en est bien le propriétaire. Ils découvrent l'histoire d'une féministe dans les années 1970.
@@ -582,9 +789,47 @@
 La lettre de Toinette, 2021  (ISBN 979-1-0347-3611-9).
 Mon île adorée, 2021  (ISBN 978-2-8001-7399-3).
 La voiture de Bob, 2022  (ISBN 9791034757749).
-Le mur de Hans, 2023  (ISBN 9791034767229).
-Complots à Versailles
-D'après les romans d'Annie Jay, avec Giula Adragna (dessin) et Francesca Piscitelli (couleurs), Jungle, coll. « Miss Jungle ».
+Le mur de Hans, 2023  (ISBN 9791034767229).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Complots à Versailles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D'après les romans d'Annie Jay, avec Giula Adragna (dessin) et Francesca Piscitelli (couleurs), Jungle, coll. « Miss Jungle ».
 Bien qu'elle soit une aristocrate, la jeune Cécile ne cesse de critiquer la noblesse, ce qui agace son amie d'enfance, Pauline. Nommée Demoiselle de la Reine, Pauline entre à la Cour de Louis XIV, au château de Versailles. Avec son amie Pauline, elles découvrent un monde de courtisans prêts à toutes les bassesses pour gagner les faveurs du monarque et vont se trouver prises dans un tourbillon de complots et d'intrigues…
 À la cour du roi, 2019  (ISBN 978-2-8222-2884-8).
 La dame aux élixirs, 2020  (ISBN 978-2-8222-3052-0).
@@ -593,14 +838,86 @@
 Mariages à la cour, 2022 (titre original et inédit, co-écrit avec CeeCeeMia)  (ISBN 978-2-8222-3404-7).
 Mme de Maintenon, 2022 (titre original et inédit, co-écrit avec CeeCeeMia)  (ISBN 978-2-8222-3791-8).
 Madinina, l'île aux fleurs, 2023 (titre original et inédit, co-écrit avec CeeCeeMia)  (ISBN 978-2-8222-4057-4).
-Tome 8, 2023 (titre original et inédit, co-écrit avec CeeCeeMia)  (ISBN 978-2-8222-4087-1).
-Maïana
-avec Pauline Berdal (dessin et couleurs), Jungle, coll. « Miss Jungle »
+Tome 8, 2023 (titre original et inédit, co-écrit avec CeeCeeMia)  (ISBN 978-2-8222-4087-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En albums</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Maïana</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>avec Pauline Berdal (dessin et couleurs), Jungle, coll. « Miss Jungle »
 À quelques jours de Noël, la jeune Maïana découvre un cadeau à son nom, un calendrier de l’Avent garni de truffes au chocolat accompagnées chacune d'un court message à l’intérieur. Les messages qu'elle découvre jour après jour prennent une étrange résonance avec sa vie, lui donnant tantôt confiance en elle et l'amenant tantôt à se poser des questions, notamment sur son père qu'elle n'a jamais connu…
 Le Calendrier de l’Avent, 2019  (ISBN 978-2-8222-2841-1).
-L'anniversaire de Jules, 2020  (ISBN 978-2-23105-3)
-Littérature jeunesse
-Le Géant aux grandes dents (ill. Sophie Nicaise), Éditions du pas de l'échelle, 2006  (ISBN 2952502927).
+L'anniversaire de Jules, 2020  (ISBN 978-2-23105-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Géant aux grandes dents (ill. Sophie Nicaise), Éditions du pas de l'échelle, 2006  (ISBN 2952502927).
 Dans mon jardin (ill. Nicole Noé), Éditions du pas de l'échelle, 2006  (ISBN 2952502919).
 Ça suffit ! (ill. Véronique Hermouet), Éditions du pas de l'échelle, 2009  (ISBN 9782918233008).
 Rien que nous deux (ill. Laire Phélipon), Limonade, 2010  (ISBN 9782940456109).
@@ -620,37 +937,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carbone_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Carbone_(scénariste)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carbone_(sc%C3%A9nariste)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Prix Ligue de l'Enseignement 41 pour le Jeune Public lors du festival bd BOUM pour La Boîte à musique t. 1 (avec Gijé)[5]
-2019 : Prix des écoles d'Angoulême lors du festival d'Angoulême 2019 pour La Boîte à musique t. 1 (avec Gijé)[6]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2018 : Prix Ligue de l'Enseignement 41 pour le Jeune Public lors du festival bd BOUM pour La Boîte à musique t. 1 (avec Gijé)
+2019 : Prix des écoles d'Angoulême lors du festival d'Angoulême 2019 pour La Boîte à musique t. 1 (avec Gijé)
 2022 : Prix des écoles d'Angoulême lors du festival d'Angouleme 2022 pour La Sentinelle du Petit Peuple t. 1
-Prix de l'Enseignement 41 pour le Jeune Public pour La brigade des souvenirs-La lettre de Toinette (avec Cee Cee Mia et Marko)[7]
-2022 :  prix Sproing de la meilleure bande dessinée étrangère pour Dans les yeux de Lisa t. 3 (avec Justine Cunha)[8]</t>
+Prix de l'Enseignement 41 pour le Jeune Public pour La brigade des souvenirs-La lettre de Toinette (avec Cee Cee Mia et Marko)
+2022 :  prix Sproing de la meilleure bande dessinée étrangère pour Dans les yeux de Lisa t. 3 (avec Justine Cunha)</t>
         </is>
       </c>
     </row>
